--- a/Propriété eau.xlsx
+++ b/Propriété eau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucka\Documents\École\mec8211\Final_projet_mec8211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50CFB19F-4656-4DDF-BCE4-32A204C27B56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70996D0A-A353-4F9F-9395-590DBF7C951A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67492A66-4110-4320-8E63-88C4314B767F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t>T</t>
   </si>
@@ -127,16 +127,183 @@
   </si>
   <si>
     <t>m^3/kg</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.001004</t>
+  </si>
+  <si>
+    <t>0.001017</t>
+  </si>
+  <si>
+    <t>0.00104</t>
+  </si>
+  <si>
+    <t>0.001043</t>
+  </si>
+  <si>
+    <t>0.001047</t>
+  </si>
+  <si>
+    <t>0.001052</t>
+  </si>
+  <si>
+    <t>0.001056</t>
+  </si>
+  <si>
+    <t>0.00106</t>
+  </si>
+  <si>
+    <t>0.001065</t>
+  </si>
+  <si>
+    <t>0.00107</t>
+  </si>
+  <si>
+    <t>0.001075</t>
+  </si>
+  <si>
+    <t>0.00108</t>
+  </si>
+  <si>
+    <t>0.001085</t>
+  </si>
+  <si>
+    <t>0.001091</t>
+  </si>
+  <si>
+    <t>0.001096</t>
+  </si>
+  <si>
+    <t>3.42479161619556e-09</t>
+  </si>
+  <si>
+    <t>9.74621756935094e-08</t>
+  </si>
+  <si>
+    <t>0.000999199764534694</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>0.00485436893203883</t>
+  </si>
+  <si>
+    <t>0.0304145503208735</t>
+  </si>
+  <si>
+    <t>0.130429111777749</t>
+  </si>
+  <si>
+    <t>0.504846526655897</t>
+  </si>
+  <si>
+    <t>0.598086124401914</t>
+  </si>
+  <si>
+    <t>0.704920344001128</t>
+  </si>
+  <si>
+    <t>0.826856292376385</t>
+  </si>
+  <si>
+    <t>0.965250965250965</t>
+  </si>
+  <si>
+    <t>1.12191893013811</t>
+  </si>
+  <si>
+    <t>1.29849893523087</t>
+  </si>
+  <si>
+    <t>1.49682672733804</t>
+  </si>
+  <si>
+    <t>1.71883325598584</t>
+  </si>
+  <si>
+    <t>1.96656833824975</t>
+  </si>
+  <si>
+    <t>2.24215246636771</t>
+  </si>
+  <si>
+    <t>2.54790052996331</t>
+  </si>
+  <si>
+    <t>2.88616947587162</t>
+  </si>
+  <si>
+    <t>1.42923078575323e-06</t>
+  </si>
+  <si>
+    <t>0.00513812156307199</t>
+  </si>
+  <si>
+    <t>kg/s</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>air rad</t>
+  </si>
+  <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>densite air</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>Variation linear du h avec la vitesse dans le rad</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>http://citeseerx.ist.psu.edu/viewdoc/download?doi=10.1.1.824.1312&amp;rep=rep1&amp;type=pdf</t>
+  </si>
+  <si>
+    <t>w/K(mm^2) at 9,35m/s</t>
+  </si>
+  <si>
+    <t>w/K(mm^2)/(m/s)</t>
+  </si>
+  <si>
+    <t>w/k</t>
+  </si>
+  <si>
+    <t>double passe w/k at 9,35 m/s</t>
+  </si>
+  <si>
+    <t>single pass w/k at 9,35 m/s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -150,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -158,17 +325,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1042,6 +1260,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28639435695538057"/>
+                  <c:y val="-4.4655511811023625E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Feuil1!$E$34:$E$49</c:f>
@@ -1350,6 +1619,1136 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45428455818022745"/>
+          <c:y val="0.11574074074074074"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$34:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$34:$I$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>4.8543689320388345E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0414550320873507E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1304291117777488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50484652665589669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.59808612440191389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7049203440011278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82685629237638492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96525096525096521</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1219189301381083</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2984989352308731</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4968267273380433</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7188332559858368</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.9665683382497543</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2421524663677128</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5479005299633104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.8861694758716232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB44-43F6-B900-EF343E051541}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="961922080"/>
+        <c:axId val="974261760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="961922080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="974261760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="974261760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="961922080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$89:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$F$89:$F$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29447050000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41849740000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51572280000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BA6F-461A-91C8-03C219AD41F4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="837502624"/>
+        <c:axId val="1026822464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="837502624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026822464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1026822464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="837502624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35706233595800524"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26763385826771652"/>
+                  <c:y val="-5.0462962962962961E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$89:$E$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$H$89:$H$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.59031582111801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.95756497277912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>176.16949517235608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-873C-4AFF-98EA-110BE6F76D1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1030818560"/>
+        <c:axId val="1026810816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1030818560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1026810816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1026810816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1030818560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1470,6 +2869,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2503,6 +4022,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3058,15 +6125,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>732691</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>699073</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>20515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>732691</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>699073</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>96715</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3094,16 +6161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>615461</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>123093</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>649079</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>615461</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>8793</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>132058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3123,6 +6190,114 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>158002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E1EB634-FA9E-4BFA-9E0D-5B3EB640054D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>1119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11205</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>66113</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233397B-19AB-4100-87A3-493F4E839668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>773203</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>79561</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>728380</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>155761</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1390415D-A686-44D9-9004-C8736ADE695D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3428,15 +6603,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E82A4B-79E8-4B1F-BFB6-B6397A01BA58}">
-  <dimension ref="B2:L49"/>
+  <dimension ref="B2:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.25">
@@ -3851,6 +7027,13 @@
       <c r="G34">
         <v>1E-3</v>
       </c>
+      <c r="H34">
+        <v>206</v>
+      </c>
+      <c r="I34">
+        <f>1/H34</f>
+        <v>4.8543689320388345E-3</v>
+      </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35">
@@ -3862,6 +7045,13 @@
       <c r="G35">
         <v>1.0039999999999999E-3</v>
       </c>
+      <c r="H35">
+        <v>32.878999999999998</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I49" si="0">1/H35</f>
+        <v>3.0414550320873507E-2</v>
+      </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36">
@@ -3873,6 +7063,13 @@
       <c r="G36">
         <v>1.0169999999999999E-3</v>
       </c>
+      <c r="H36">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.1304291117777488</v>
+      </c>
       <c r="K36" t="s">
         <v>30</v>
       </c>
@@ -3887,6 +7084,13 @@
       <c r="G37">
         <v>1.0399999999999999E-3</v>
       </c>
+      <c r="H37">
+        <v>1.9807999999999999</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0.50484652665589669</v>
+      </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38">
@@ -3898,6 +7102,13 @@
       <c r="G38">
         <v>1.0430000000000001E-3</v>
       </c>
+      <c r="H38">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>0.59808612440191389</v>
+      </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39">
@@ -3906,6 +7117,13 @@
       <c r="G39">
         <v>1.047E-3</v>
       </c>
+      <c r="H39">
+        <v>1.4186000000000001</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0.7049203440011278</v>
+      </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40">
@@ -3914,6 +7132,13 @@
       <c r="G40">
         <v>1.052E-3</v>
       </c>
+      <c r="H40">
+        <v>1.2094</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0.82685629237638492</v>
+      </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41">
@@ -3922,6 +7147,13 @@
       <c r="G41">
         <v>1.0560000000000001E-3</v>
       </c>
+      <c r="H41">
+        <v>1.036</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0.96525096525096521</v>
+      </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42">
@@ -3930,6 +7162,13 @@
       <c r="G42">
         <v>1.06E-3</v>
       </c>
+      <c r="H42">
+        <v>0.89132999999999996</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1.1219189301381083</v>
+      </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43">
@@ -3938,6 +7177,13 @@
       <c r="G43">
         <v>1.065E-3</v>
       </c>
+      <c r="H43">
+        <v>0.77012000000000003</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>1.2984989352308731</v>
+      </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44">
@@ -3946,6 +7192,13 @@
       <c r="G44">
         <v>1.07E-3</v>
       </c>
+      <c r="H44">
+        <v>0.66808000000000001</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1.4968267273380433</v>
+      </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45">
@@ -3954,6 +7207,13 @@
       <c r="G45">
         <v>1.075E-3</v>
       </c>
+      <c r="H45">
+        <v>0.58179000000000003</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1.7188332559858368</v>
+      </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46">
@@ -3962,6 +7222,13 @@
       <c r="G46">
         <v>1.08E-3</v>
       </c>
+      <c r="H46">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1.9665683382497543</v>
+      </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47">
@@ -3970,6 +7237,13 @@
       <c r="G47">
         <v>1.085E-3</v>
       </c>
+      <c r="H47">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>2.2421524663677128</v>
+      </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48">
@@ -3978,20 +7252,383 @@
       <c r="G48">
         <v>1.091E-3</v>
       </c>
+      <c r="H48">
+        <v>0.39248</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>2.5479005299633104</v>
+      </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>155</v>
       </c>
       <c r="G49">
         <v>1.096E-3</v>
+      </c>
+      <c r="H49">
+        <v>0.34648000000000001</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>2.8861694758716232</v>
+      </c>
+    </row>
+    <row r="53" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>30</v>
+      </c>
+      <c r="G54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>35</v>
+      </c>
+      <c r="I55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>95</v>
+      </c>
+      <c r="G56" t="s">
+        <v>36</v>
+      </c>
+      <c r="I56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56" t="s">
+        <v>49</v>
+      </c>
+      <c r="M56" t="s">
+        <v>50</v>
+      </c>
+      <c r="N56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>100</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>105</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" t="s">
+        <v>57</v>
+      </c>
+      <c r="N58" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>110</v>
+      </c>
+      <c r="G59" t="s">
+        <v>39</v>
+      </c>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+      <c r="N59">
+        <v>-1.35325973005217E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>115</v>
+      </c>
+      <c r="G60" t="s">
+        <v>40</v>
+      </c>
+      <c r="I60" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" t="s">
+        <v>49</v>
+      </c>
+      <c r="N60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>120</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61">
+        <v>-8.1003507346156106E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>125</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+      <c r="I62" t="s">
+        <v>61</v>
+      </c>
+      <c r="K62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>130</v>
+      </c>
+      <c r="G63" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>135</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>140</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>145</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>150</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>155</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>75</v>
+      </c>
+      <c r="F86">
+        <v>1.204</v>
+      </c>
+      <c r="G86" t="s">
+        <v>76</v>
+      </c>
+      <c r="I86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>282</v>
+      </c>
+      <c r="K86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87">
+        <f>290*196</f>
+        <v>56840</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
+      <c r="I87" t="s">
+        <v>80</v>
+      </c>
+      <c r="J87">
+        <f>J86/352/302</f>
+        <v>2.6527694160144492E-3</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>72</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s">
+        <v>81</v>
+      </c>
+      <c r="J88">
+        <f>J87/9.35</f>
+        <v>2.8371865411919243E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>F89*$F$86/($F$87/1000000)</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>$F$87*$J$88*G89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E90" s="3">
+        <v>15</v>
+      </c>
+      <c r="F90" s="4">
+        <v>0.29447050000000002</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" ref="G90:G92" si="1">F90*$F$86/($F$87/1000000)</f>
+        <v>6.237552463054187</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" ref="H90:H92" si="2">$F$87*$J$88*G90</f>
+        <v>100.59031582111801</v>
+      </c>
+    </row>
+    <row r="91" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E91" s="7">
+        <v>20</v>
+      </c>
+      <c r="F91" s="5">
+        <v>0.41849740000000002</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="1"/>
+        <v>8.8647232512315277</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="2"/>
+        <v>142.95756497277912</v>
+      </c>
+    </row>
+    <row r="92" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="7">
+        <v>25</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.51572280000000004</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="1"/>
+        <v>10.924177536945813</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="2"/>
+        <v>176.16949517235608</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D4:D6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K87" r:id="rId1" xr:uid="{61AE4DA2-E97B-40A8-8D94-9D85E4EAD226}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Propriété eau.xlsx
+++ b/Propriété eau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucka\Documents\École\mec8211\Final_projet_mec8211\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70996D0A-A353-4F9F-9395-590DBF7C951A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AD3A3B6-4502-4E4F-9D4F-4C5A97C69170}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67492A66-4110-4320-8E63-88C4314B767F}"/>
   </bookViews>
@@ -375,15 +375,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2474,6 +2474,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6161,16 +6162,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>649079</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67236</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212049</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>132058</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>109647</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6197,16 +6198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>158002</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>112058</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>43702</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6233,16 +6234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>1119</xdr:rowOff>
+      <xdr:rowOff>12324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>66113</xdr:rowOff>
+      <xdr:rowOff>77318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6605,8 +6606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E82A4B-79E8-4B1F-BFB6-B6397A01BA58}">
   <dimension ref="B2:N92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I64" sqref="I64"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,7 +6636,7 @@
       </c>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E4">
@@ -6664,7 +6665,7 @@
       </c>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="D5" s="7"/>
       <c r="E5">
         <v>100</v>
       </c>
@@ -6691,7 +6692,7 @@
       </c>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="D6" s="7"/>
       <c r="E6">
         <v>150</v>
       </c>
@@ -7534,7 +7535,7 @@
         <f>J86/352/302</f>
         <v>2.6527694160144492E-3</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K87" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7573,49 +7574,49 @@
       </c>
     </row>
     <row r="90" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>15</v>
       </c>
-      <c r="F90" s="4">
+      <c r="F90" s="3">
         <v>0.29447050000000002</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90" s="2">
         <f t="shared" ref="G90:G92" si="1">F90*$F$86/($F$87/1000000)</f>
         <v>6.237552463054187</v>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="2">
         <f t="shared" ref="H90:H92" si="2">$F$87*$J$88*G90</f>
         <v>100.59031582111801</v>
       </c>
     </row>
     <row r="91" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>20</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F91" s="4">
         <v>0.41849740000000002</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="2">
         <f t="shared" si="1"/>
         <v>8.8647232512315277</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="2">
         <f t="shared" si="2"/>
         <v>142.95756497277912</v>
       </c>
     </row>
     <row r="92" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>25</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>0.51572280000000004</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92" s="2">
         <f t="shared" si="1"/>
         <v>10.924177536945813</v>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="2">
         <f t="shared" si="2"/>
         <v>176.16949517235608</v>
       </c>
